--- a/BOM Bijgewerkt.xlsx
+++ b/BOM Bijgewerkt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gijsj\Documents\1_EAI\Github\Elektronische-systemen-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\2EAIA_2021-2022\Elektronische_Systemen_2\Elektronische_systemen_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E361B3FA-C3BA-4CC3-B24D-CB120F309559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33DBA0B-176B-487A-B2DB-8452D2CDE220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D9BF0B0C-6299-450B-AB13-B73564D635F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D9BF0B0C-6299-450B-AB13-B73564D635F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -266,10 +266,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,21 +585,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F61190-54F6-4F78-8B9B-0AB4459BC043}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="203.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="203.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -609,21 +609,21 @@
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -641,12 +641,12 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="7"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -664,11 +664,11 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="7"/>
+      <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -686,12 +686,12 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -709,34 +709,12 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="7"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -754,12 +732,12 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -772,8 +750,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -786,8 +764,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -800,8 +778,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -814,8 +792,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -828,8 +806,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -842,8 +820,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -856,8 +834,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -870,61 +848,77 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="6"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -935,8 +929,10 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{ED30F8FA-D25E-48CB-AFE0-88464F6355CC}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{5E37EA62-C1D8-428B-94E2-7D4D178350D0}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{2DF92B42-4060-48C8-ADF7-D4739FF845D6}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{62579964-831A-4E21-B6DB-3D7AD9C0F839}"/>
+    <hyperlink ref="D23" r:id="rId5" xr:uid="{62579964-831A-4E21-B6DB-3D7AD9C0F839}"/>
     <hyperlink ref="D10" r:id="rId6" xr:uid="{38FECDEA-AA78-430D-BDFC-C0F1DAE23BCF}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{D16EAD34-6005-4BE3-ABE1-9331493B2D89}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{096F5BAD-7E68-4290-8030-E203A0D0FC45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
